--- a/tables/crosstab/crosstab_age/crosstab_safety_age/Age VS monitoring.xlsx
+++ b/tables/crosstab/crosstab_age/crosstab_safety_age/Age VS monitoring.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>41-64</t>
-  </si>
-  <si>
-    <t>7-14</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,22 +435,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>49</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>16.95</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>12.04</v>
+        <v>12.25</v>
       </c>
       <c r="G2">
-        <v>28.99</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +458,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3">
-        <v>17.2</v>
+        <v>17.25</v>
       </c>
       <c r="F3">
-        <v>22.36</v>
+        <v>22.5</v>
       </c>
       <c r="G3">
-        <v>39.56</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,67 +481,44 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>9.83</v>
+        <v>9.5</v>
       </c>
       <c r="F4">
-        <v>21.38</v>
+        <v>21.5</v>
       </c>
       <c r="G4">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>43.75</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>180</v>
-      </c>
-      <c r="C6">
-        <v>227</v>
-      </c>
-      <c r="D6">
-        <v>407</v>
-      </c>
-      <c r="E6">
-        <v>44.23</v>
-      </c>
-      <c r="F6">
-        <v>55.77</v>
-      </c>
-      <c r="G6">
         <v>100</v>
       </c>
     </row>
